--- a/ErrorHandling/WorkInProgress_ErrorHandling/KnownTerminatingErrors.xlsx
+++ b/ErrorHandling/WorkInProgress_ErrorHandling/KnownTerminatingErrors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Cmdlet Name</t>
   </si>
@@ -81,6 +81,57 @@
   </si>
   <si>
     <t>You use the -CimSession or -PSSession parameters without also using the  -ListAvailable switch.</t>
+  </si>
+  <si>
+    <t>Where-Object</t>
+  </si>
+  <si>
+    <t>You attempt to use the -match or -notmatch operators (including all case sensitive versions) in Restricted Language mode.</t>
+  </si>
+  <si>
+    <t>Clear-History</t>
+  </si>
+  <si>
+    <t>You specify a -Count argument of less than 0.</t>
+  </si>
+  <si>
+    <t>New-PSSessionConfigurationFile</t>
+  </si>
+  <si>
+    <t>One of the values passed to the ModulesToImport parameter is not a string and not a hashtable.</t>
+  </si>
+  <si>
+    <t>You pass a value to the -Path parameter which is not on the file system provider, or does not end in .pssc</t>
+  </si>
+  <si>
+    <t>Set-PSSessionConfiguration</t>
+  </si>
+  <si>
+    <t>Export-PSSession</t>
+  </si>
+  <si>
+    <t>Start-Job</t>
+  </si>
+  <si>
+    <t>You attempt to use the -ScriptBlock or -InitializationScript parameters in a Constrained Language session (unless the "System Lockdown Policy" is set to "Enforce"; not sure what that logic is for.)</t>
+  </si>
+  <si>
+    <t>You specify the -OutputModule parameter, do not specify the -Force switch, and the directory passed to -OutputModule already exists.</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Invoke-History</t>
+  </si>
+  <si>
+    <t>You pipe multiple values to the -Id parameter.</t>
+  </si>
+  <si>
+    <t>Wait-Job</t>
+  </si>
+  <si>
+    <t>Haven't finished analyzing this logic yet.  If the number of finished + blocked jobs doesn't match the number of jobs the cmdlet is monitoring, it will wind up throwing a terminating error.  (Not sure what can lead to that condition yet.)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -463,11 +514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,6 +638,105 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ErrorHandling/WorkInProgress_ErrorHandling/KnownTerminatingErrors.xlsx
+++ b/ErrorHandling/WorkInProgress_ErrorHandling/KnownTerminatingErrors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>Cmdlet Name</t>
   </si>
@@ -132,6 +132,105 @@
   </si>
   <si>
     <t>Haven't finished analyzing this logic yet.  If the number of finished + blocked jobs doesn't match the number of jobs the cmdlet is monitoring, it will wind up throwing a terminating error.  (Not sure what can lead to that condition yet.)</t>
+  </si>
+  <si>
+    <t>No matching history entry exists for the parameters specified.</t>
+  </si>
+  <si>
+    <t>Test-ModuleManifest</t>
+  </si>
+  <si>
+    <t>Invoke-Command</t>
+  </si>
+  <si>
+    <t>You attempt to access a $using: scoped variable inside a function or filter embedded in the script block.</t>
+  </si>
+  <si>
+    <t>New-Module</t>
+  </si>
+  <si>
+    <t>You attempt to create or import modules nested more than 10 deep.</t>
+  </si>
+  <si>
+    <t>Get-Command</t>
+  </si>
+  <si>
+    <t>Not entirely sure what conditions lead up to this one.  The FullyQualifiedErrorId that gets emitted is "CommandArgsOnlyForSingleCmdlet".  It happens when you specify a value for the -ArgumentList parameter, and the command somehow winds up matching something other than a Cmdlet (or equivalent script block:  function / script / configuration / workflow )</t>
+  </si>
+  <si>
+    <t>Various types of in a module manifest can cause a terminating error, such as TypesToProcess referring to missing ps1xml files.</t>
+  </si>
+  <si>
+    <t>If you specify the -NoClobber parameter and the file exists, a terminating exception is produced.</t>
+  </si>
+  <si>
+    <t>Enter-PSSession</t>
+  </si>
+  <si>
+    <t>You attempt to call Enter-PSSession while your host is in a nested prompt.</t>
+  </si>
+  <si>
+    <t>Export-ModuleMember</t>
+  </si>
+  <si>
+    <t>You attempt to call Export-ModuleMember outside of a module.</t>
+  </si>
+  <si>
+    <t>Get-History</t>
+  </si>
+  <si>
+    <t>You pass in multiple Id arguments without also specifying the -Count parameter.</t>
+  </si>
+  <si>
+    <t>You call Get-Module without specifying either -Name or -FullyQualifiedName.</t>
+  </si>
+  <si>
+    <t>You specify a -Path value which is not on the file system provider, or does not have a .psd1 extension.</t>
+  </si>
+  <si>
+    <t>You specify a -Path value which is not on the file system provider, or does not have a .pssc extension.</t>
+  </si>
+  <si>
+    <t>You specify a -Path value which is not on the FileSystem provider, resolves to more than one file, or the file does not have a .psd1 extension.</t>
+  </si>
+  <si>
+    <t>Test-PSSessionConfigurationFile</t>
+  </si>
+  <si>
+    <t>You specify a -Path value which is not on the FileSystem provider, resolves to more than one file, or the file does not have a .pssc extension.</t>
+  </si>
+  <si>
+    <t>Update-Help</t>
+  </si>
+  <si>
+    <t>You specify the -Recurse switch without also specifying a value for -Path</t>
+  </si>
+  <si>
+    <t>You fail to specify a -Value argument when using any parameter set other than -EQ or -FilterScript.  If you explicitly specify -EQ, you must also specify -Value.  (ie, ( $something | Where-Object PropertyName ) is okay, and ($something | Where-Object PropertyName -EQ ) is not. )</t>
+  </si>
+  <si>
+    <t>Format-*</t>
+  </si>
+  <si>
+    <t>You specify values for both -Property and -View parameters.</t>
+  </si>
+  <si>
+    <t>*** Many cmdlets that output to files without using the FileSystem provider and have a -NoClobber parameter (Export-Alias, Export-Clixml, Export-Console,Export-Csv,Export-FormatData,Out-File)</t>
+  </si>
+  <si>
+    <t>*** Many cmdlets that output to files without using the FileSystem provider.</t>
+  </si>
+  <si>
+    <t>The cmdlet fails to open a file for Write or Append successfully.</t>
+  </si>
+  <si>
+    <t>The path sent to these cmdlets does not refer to the FileSystem provider, refers to a PSDrive that does not exist, or does not resolve to exactly one file.</t>
+  </si>
+  <si>
+    <t>Export-Console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value passed to either the -Path parameter, or set in the $ConsoleFileName variable is blank or contains wildcards. </t>
   </si>
 </sst>
 </file>
@@ -514,22 +613,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="103.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -540,7 +639,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -551,7 +650,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -562,7 +661,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -573,7 +672,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -584,7 +683,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -595,7 +694,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -606,7 +705,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -617,7 +716,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -628,7 +727,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -639,7 +738,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -650,7 +749,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -661,7 +760,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -672,7 +771,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -683,7 +782,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -694,7 +793,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -705,7 +804,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -716,7 +815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -726,18 +825,258 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>